--- a/数据库表/ai_scale.xlsx
+++ b/数据库表/ai_scale.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AixlProject\AiWeb\数据库表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F44427-3E8C-47FF-B21B-47B7B91249EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ai_scale" sheetId="1" r:id="rId2"/>
+    <sheet name="ai_scale" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ai_scale_id</t>
   </si>
@@ -118,16 +125,51 @@
   </si>
   <si>
     <t>一般自我效能感量表</t>
+  </si>
+  <si>
+    <t>阿尔茨海默病评定量表（Alzheimer's disease assessment scale-cognitive section,ADAS）由Rosen等在1984年编制，适用于轻、中度痴呆检测，在药物临床实验中被广泛用于认知变化的评价。不适合极轻和极重度痴呆的评定，也不能用于痴呆病因的鉴别诊断。ADAS分为认知（ADAS-Cog）和非认知（ADAS-Non-Cog）两个部分。该检查内容较为详细，包含了痴呆诊断标准所要求的主要认知功能测定，整个操作必须由专业人员执行，需时约45分钟。&amp;ADAS的认知部分常单独使用，目的是评定阿尔茨海默病患者记忆力、语言和其他认知障碍的严重程度，由12个条目组成，其中，4个条目评价记忆力（单词回忆和单词辨认）和定向力（时间和地点），5个条目评价语言（命名物体或手指、指令、口头语言能力、找词困难和口头语言理解能力），2个条目评价实践能力（结构性练习和意象性练习），1个条目评价注意力和注意力集中（回忆测验指令）。评分范围从0分（提示无错误或损害）到最大值70分（提示患者在所有测验条目中表现出严重损害）。对AD患者进行的纵向研究表明，ADAS认知部分的评分平均每年约增加9分。分值改善4分（相当于6个月平均自然下降分数）作为疗效显效的标准。由甲、乙两套量表，一致性检验相符，测试间隔小于6个月时应换用第二套量表。北京市科委十五“老年痴呆临床量表规范化研究”中，北京8家综合性医院对305例痴呆被试进行研究显示，ADAS-Cog量表区分轻、中度AD的界限值为22分，其敏感度为82%，特异性为70%。定向力单项评定轻度AD敏感度为80%，特异性为73%。ADAS-Cog量表检测不受年龄及文化程度影响。&amp;ADAS非认知部分用于检测非认知症状，如激越、抑郁心境或精神病。根据与患者及其主要照料着进行访谈后作出临床评定。由7个条目组成，2项评价心境，3项评价激越以及2项评价精神病表现。每个条目的评分范围从0分（提示无损害或未出现症状）到5分（提示严重而持久的症状）。&amp;ADAS认知部分的检测方法：ADAS认知部分的测验部分条目应该按照评分表所列的次序进行测验。首先进行单词会议测试，单词辨认测验最后进行，其它认知条目穿插与两项测试之间。以这种方式将两项单词记忆任务分开，可以最大限度地减小患者混淆两项任务中的单词的机会。开始测试之前，测试者应该与患者进行一些简短交谈，谈论一些中性话题，如天气、患者到诊所的路途，或患者的早餐等，这可使患者更放松，也为测试这提供了一个观察患者应用和理解语言能力的机会。&amp;ADAS不是一项定时测验，患者的评分不依赖测验完成的速度有多快。为了确保测试阶段快速进行，确保每位患者有同样的机会正确回答，每个认知条目只允许有两次回答机会。如果患者在第二次机会中未能正确回答，测试者应该进行下一次条目。给患者的反馈应该是中性的，并且，通常不能提示其回答是否正确。只要患者在努力，可作诸如“很好”或“做的不错”等评论。如果患者特别询问自己是否回答正确，则可给予反馈。</t>
+  </si>
+  <si>
+    <r>
+      <t>Rey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听觉词语学习测验（Rey auditory verbal learning test ,RAVLT）是Rey于1964年编制的，主要用于评价被试的记忆力。在长期应用过程中，RAVLT演变出很多版本，不同的版本在学习回忆的次数、词语的常见性、是否进行再认等方面存在不同。应用最多的是对15个名词（A组）连续进行5次学习和回忆后，对另外15个“干扰”名词（B组）进行学习回忆，并在30分钟后回忆第一组词语。前5次正确回忆的总数为即刻记忆得分，用于评价即刻记忆,大于15分为正常。30分钟后正确回忆的总数为延迟记忆得分，用于评价延迟记忆&gt;4分为正常。此外，还有的研究者为避免天花板效应选择3次学习，或在长时过程回忆后进行再次测验。再认的方式有两种，一种是让被试在50个名词（包括15个A组词，15个B组词和20个新的常见名词）中识别出A组词；另一种是让被试在包含所有A组词的一则故事中，识别出A组词。英文版测验显示RAVLT鉴别AD和血管性痴呆的灵敏性为81%，特异性为84%。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,267 +192,602 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="409.5">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7">
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12">
+    <row r="12" spans="1:4" ht="135">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13">
+    <row r="13" spans="1:4" ht="150">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14">
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21">
+    <row r="21" spans="1:4" ht="225">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据库表/ai_scale.xlsx
+++ b/数据库表/ai_scale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AixlProject\AiWeb\数据库表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F44427-3E8C-47FF-B21B-47B7B91249EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588F93A6-AA38-4CDA-B893-F71CBE0FA5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ai_scale_id</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>一般自我效能感量表</t>
-  </si>
-  <si>
-    <t>阿尔茨海默病评定量表（Alzheimer's disease assessment scale-cognitive section,ADAS）由Rosen等在1984年编制，适用于轻、中度痴呆检测，在药物临床实验中被广泛用于认知变化的评价。不适合极轻和极重度痴呆的评定，也不能用于痴呆病因的鉴别诊断。ADAS分为认知（ADAS-Cog）和非认知（ADAS-Non-Cog）两个部分。该检查内容较为详细，包含了痴呆诊断标准所要求的主要认知功能测定，整个操作必须由专业人员执行，需时约45分钟。&amp;ADAS的认知部分常单独使用，目的是评定阿尔茨海默病患者记忆力、语言和其他认知障碍的严重程度，由12个条目组成，其中，4个条目评价记忆力（单词回忆和单词辨认）和定向力（时间和地点），5个条目评价语言（命名物体或手指、指令、口头语言能力、找词困难和口头语言理解能力），2个条目评价实践能力（结构性练习和意象性练习），1个条目评价注意力和注意力集中（回忆测验指令）。评分范围从0分（提示无错误或损害）到最大值70分（提示患者在所有测验条目中表现出严重损害）。对AD患者进行的纵向研究表明，ADAS认知部分的评分平均每年约增加9分。分值改善4分（相当于6个月平均自然下降分数）作为疗效显效的标准。由甲、乙两套量表，一致性检验相符，测试间隔小于6个月时应换用第二套量表。北京市科委十五“老年痴呆临床量表规范化研究”中，北京8家综合性医院对305例痴呆被试进行研究显示，ADAS-Cog量表区分轻、中度AD的界限值为22分，其敏感度为82%，特异性为70%。定向力单项评定轻度AD敏感度为80%，特异性为73%。ADAS-Cog量表检测不受年龄及文化程度影响。&amp;ADAS非认知部分用于检测非认知症状，如激越、抑郁心境或精神病。根据与患者及其主要照料着进行访谈后作出临床评定。由7个条目组成，2项评价心境，3项评价激越以及2项评价精神病表现。每个条目的评分范围从0分（提示无损害或未出现症状）到5分（提示严重而持久的症状）。&amp;ADAS认知部分的检测方法：ADAS认知部分的测验部分条目应该按照评分表所列的次序进行测验。首先进行单词会议测试，单词辨认测验最后进行，其它认知条目穿插与两项测试之间。以这种方式将两项单词记忆任务分开，可以最大限度地减小患者混淆两项任务中的单词的机会。开始测试之前，测试者应该与患者进行一些简短交谈，谈论一些中性话题，如天气、患者到诊所的路途，或患者的早餐等，这可使患者更放松，也为测试这提供了一个观察患者应用和理解语言能力的机会。&amp;ADAS不是一项定时测验，患者的评分不依赖测验完成的速度有多快。为了确保测试阶段快速进行，确保每位患者有同样的机会正确回答，每个认知条目只允许有两次回答机会。如果患者在第二次机会中未能正确回答，测试者应该进行下一次条目。给患者的反馈应该是中性的，并且，通常不能提示其回答是否正确。只要患者在努力，可作诸如“很好”或“做的不错”等评论。如果患者特别询问自己是否回答正确，则可给予反馈。</t>
   </si>
   <si>
     <r>
@@ -142,6 +139,41 @@
       </rPr>
       <t>听觉词语学习测验（Rey auditory verbal learning test ,RAVLT）是Rey于1964年编制的，主要用于评价被试的记忆力。在长期应用过程中，RAVLT演变出很多版本，不同的版本在学习回忆的次数、词语的常见性、是否进行再认等方面存在不同。应用最多的是对15个名词（A组）连续进行5次学习和回忆后，对另外15个“干扰”名词（B组）进行学习回忆，并在30分钟后回忆第一组词语。前5次正确回忆的总数为即刻记忆得分，用于评价即刻记忆,大于15分为正常。30分钟后正确回忆的总数为延迟记忆得分，用于评价延迟记忆&gt;4分为正常。此外，还有的研究者为避免天花板效应选择3次学习，或在长时过程回忆后进行再次测验。再认的方式有两种，一种是让被试在50个名词（包括15个A组词，15个B组词和20个新的常见名词）中识别出A组词；另一种是让被试在包含所有A组词的一则故事中，识别出A组词。英文版测验显示RAVLT鉴别AD和血管性痴呆的灵敏性为81%，特异性为84%。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ADAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认知部分的检测方法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ADAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认知部分的测验部分条目应该按照评分表所列的次序进行测验。首先进行单词会议测试，单词辨认测验最后进行，其它认知条目穿插与两项测试之间。以这种方式将两项单词记忆任务分开，可以最大限度地减小患者混淆两项任务中的单词的机会。开始测试之前，测试者应该与患者进行一些简短交谈，谈论一些中性话题，如天气、患者到诊所的路途，或患者的早餐等，这可使患者更放松，也为测试这提供了一个观察患者应用和理解语言能力的机会。&amp;ADAS不是一项定时测验，患者的评分不依赖测验完成的速度有多快。为了确保测试阶段快速进行，确保每位患者有同样的机会正确回答，每个认知条目只允许有两次回答机会。如果患者在第二次机会中未能正确回答，测试者应该进行下一次条目。给患者的反馈应该是中性的，并且，通常不能提示其回答是否正确。只要患者在努力，可作诸如“很好”或“做的不错”等评论。如果患者特别询问自己是否回答正确，则可给予反馈。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        阿尔茨海默病评定量表（Alzheimer's disease assessment scale-cognitive section,ADAS）由Rosen等在1984年编制，适用于轻、中度痴呆检测，在药物临床实验中被广泛用于认知变化的评价。不适合极轻和极重度痴呆的评定，也不能用于痴呆病因的鉴别诊断。ADAS分为认知（ADAS-Cog）和非认知（ADAS-Non-Cog）两个部分。该检查内容较为详细，包含了痴呆诊断标准所要求的主要认知功能测定，整个操作必须由专业人员执行，需时约45分钟。&amp;ADAS的认知部分常单独使用，目的是评定阿尔茨海默病患者记忆力、语言和其他认知障碍的严重程度，由12个条目组成。其中，4个条目评价记忆力（单词回忆和单词辨认）和定向力（时间和地点），5个条目评价语言（命名物体或手指、指令、口头语言能力、找词困难和口头语言理解能力），2个条目评价实践能力（结构性练习和意象性练习），1个条目评价注意力和注意力集中（回忆测验指令）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.5">
+    <row r="6" spans="1:4" ht="163.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -586,7 +618,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -648,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
